--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122051a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122051a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.453593389473332</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.531369080152344</v>
+      </c>
+      <c r="C5">
+        <v>1.569064755693609</v>
+      </c>
+      <c r="D5">
+        <v>1.577234016062132</v>
+      </c>
+      <c r="E5">
+        <v>3.473930214167352</v>
+      </c>
+      <c r="F5">
+        <v>2.288908905254857</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.531369080152344</v>
+        <v>6.030606991795726</v>
       </c>
       <c r="C6">
-        <v>1.569064755693609</v>
+        <v>6.154420712867149</v>
       </c>
       <c r="D6">
-        <v>1.577234016062132</v>
+        <v>6.00398979625276</v>
       </c>
       <c r="E6">
-        <v>3.473930214167352</v>
+        <v>22.71984523119452</v>
       </c>
       <c r="F6">
-        <v>2.288908905254857</v>
+        <v>9.428639871253848</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>6.030606991795726</v>
+        <v>4.973256719012817</v>
       </c>
       <c r="C7">
-        <v>6.154420712867149</v>
+        <v>4.950152309863346</v>
       </c>
       <c r="D7">
-        <v>6.00398979625276</v>
+        <v>4.772233249754844</v>
       </c>
       <c r="E7">
-        <v>22.71984523119452</v>
+        <v>10.60823549574949</v>
       </c>
       <c r="F7">
-        <v>9.428639871253848</v>
+        <v>6.650042043475523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>9.228926277667323</v>
+      </c>
+      <c r="C8">
+        <v>9.952940376384262</v>
+      </c>
+      <c r="D8">
+        <v>10.38200832585068</v>
+      </c>
+      <c r="E8">
+        <v>23.63517566088568</v>
+      </c>
+      <c r="F8">
+        <v>12.27529760498293</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4.973256719012817</v>
+        <v>16.38591606998372</v>
       </c>
       <c r="C9">
-        <v>4.950152309863346</v>
+        <v>19.10305846135055</v>
       </c>
       <c r="D9">
-        <v>4.772233249754844</v>
+        <v>19.2469282804104</v>
       </c>
       <c r="E9">
-        <v>10.60823549574949</v>
+        <v>38.5256684491997</v>
       </c>
       <c r="F9">
-        <v>6.650042043475523</v>
+        <v>17.22691276506448</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>9.228926277667323</v>
+        <v>11.66764404964633</v>
       </c>
       <c r="C10">
-        <v>9.952940376384262</v>
+        <v>11.49687140809778</v>
       </c>
       <c r="D10">
-        <v>10.38200832585068</v>
+        <v>11.19173508951362</v>
       </c>
       <c r="E10">
-        <v>23.63517566088568</v>
+        <v>22.52477899993024</v>
       </c>
       <c r="F10">
-        <v>12.27529760498293</v>
+        <v>16.57958934854886</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>16.38591606998372</v>
+        <v>11.45850859238154</v>
       </c>
       <c r="C11">
-        <v>19.10305846135055</v>
+        <v>12.64086112810242</v>
       </c>
       <c r="D11">
-        <v>19.2469282804104</v>
+        <v>13.33700878874219</v>
       </c>
       <c r="E11">
-        <v>38.5256684491997</v>
+        <v>25.80824537611519</v>
       </c>
       <c r="F11">
-        <v>17.22691276506448</v>
+        <v>15.41378006550375</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>11.66764404964633</v>
+        <v>7.688597040234229</v>
       </c>
       <c r="C12">
-        <v>11.49687140809778</v>
+        <v>7.384647791665985</v>
       </c>
       <c r="D12">
-        <v>11.19173508951362</v>
+        <v>6.978655296856275</v>
       </c>
       <c r="E12">
-        <v>22.52477899993024</v>
+        <v>16.05900831650547</v>
       </c>
       <c r="F12">
-        <v>16.57958934854886</v>
+        <v>10.91215979913962</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>11.45850859238154</v>
+        <v>16.64697900468646</v>
       </c>
       <c r="C13">
-        <v>12.64086112810242</v>
+        <v>18.74832354935053</v>
       </c>
       <c r="D13">
-        <v>13.33700878874219</v>
+        <v>19.01399641152092</v>
       </c>
       <c r="E13">
-        <v>25.80824537611519</v>
+        <v>28.38839377513483</v>
       </c>
       <c r="F13">
-        <v>15.41378006550375</v>
+        <v>18.80559519756135</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>7.688597040234229</v>
+        <v>13.43811932441648</v>
       </c>
       <c r="C14">
-        <v>7.384647791665985</v>
+        <v>15.19835276543063</v>
       </c>
       <c r="D14">
-        <v>6.978655296856275</v>
+        <v>16.33205517665172</v>
       </c>
       <c r="E14">
-        <v>16.05900831650547</v>
+        <v>27.56359667322453</v>
       </c>
       <c r="F14">
-        <v>10.91215979913962</v>
+        <v>13.31645018055691</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>16.64697900468646</v>
+        <v>2.719462011039973</v>
       </c>
       <c r="C15">
-        <v>18.74832354935053</v>
+        <v>2.732311606362795</v>
       </c>
       <c r="D15">
-        <v>19.01399641152092</v>
+        <v>2.792253920515352</v>
       </c>
       <c r="E15">
-        <v>28.38839377513483</v>
+        <v>5.266429144987392</v>
       </c>
       <c r="F15">
-        <v>18.80559519756135</v>
+        <v>3.930771810782521</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>13.43811932441648</v>
+        <v>15.26363037044356</v>
       </c>
       <c r="C16">
-        <v>15.19835276543063</v>
+        <v>13.54224140350734</v>
       </c>
       <c r="D16">
-        <v>16.33205517665172</v>
+        <v>13.44365478511531</v>
       </c>
       <c r="E16">
-        <v>27.56359667322453</v>
+        <v>22.90691366199394</v>
       </c>
       <c r="F16">
-        <v>13.31645018055691</v>
+        <v>22.39976127477095</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>2.719462011039973</v>
+        <v>14.57621060357561</v>
       </c>
       <c r="C17">
-        <v>2.732311606362795</v>
+        <v>15.27471192918825</v>
       </c>
       <c r="D17">
-        <v>2.792253920515352</v>
+        <v>15.23541505820195</v>
       </c>
       <c r="E17">
-        <v>5.266429144987392</v>
+        <v>32.28426257667385</v>
       </c>
       <c r="F17">
-        <v>3.930771810782521</v>
+        <v>21.93398735429937</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>15.26363037044356</v>
+        <v>4.617989139505473</v>
       </c>
       <c r="C18">
-        <v>13.54224140350734</v>
+        <v>4.814890434042222</v>
       </c>
       <c r="D18">
-        <v>13.44365478511531</v>
+        <v>4.9966224821515</v>
       </c>
       <c r="E18">
-        <v>22.90691366199394</v>
+        <v>8.97983567562054</v>
       </c>
       <c r="F18">
-        <v>22.39976127477095</v>
+        <v>6.440943737659529</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>14.57621060357561</v>
+        <v>7.334178922728386</v>
       </c>
       <c r="C19">
-        <v>15.27471192918825</v>
+        <v>8.035662520884834</v>
       </c>
       <c r="D19">
-        <v>15.23541505820195</v>
+        <v>8.733730544894907</v>
       </c>
       <c r="E19">
-        <v>32.28426257667385</v>
+        <v>15.89700606045708</v>
       </c>
       <c r="F19">
-        <v>21.93398735429937</v>
+        <v>11.59299376317665</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.617989139505473</v>
+        <v>9.751756521097093</v>
       </c>
       <c r="C20">
-        <v>4.814890434042222</v>
+        <v>9.542916867012876</v>
       </c>
       <c r="D20">
-        <v>4.9966224821515</v>
+        <v>9.626755485866516</v>
       </c>
       <c r="E20">
-        <v>8.97983567562054</v>
+        <v>27.45066640831313</v>
       </c>
       <c r="F20">
-        <v>6.440943737659529</v>
+        <v>14.96495936000965</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>7.334178922728386</v>
+        <v>5.389146752231365</v>
       </c>
       <c r="C21">
-        <v>8.035662520884834</v>
+        <v>6.019867177187436</v>
       </c>
       <c r="D21">
-        <v>8.733730544894907</v>
+        <v>6.266406722061276</v>
       </c>
       <c r="E21">
-        <v>15.89700606045708</v>
+        <v>11.31101481458931</v>
       </c>
       <c r="F21">
-        <v>11.59299376317665</v>
+        <v>7.229142996551987</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>9.751756521097093</v>
+        <v>13.17125072616889</v>
       </c>
       <c r="C22">
-        <v>9.542916867012876</v>
+        <v>13.52152983181389</v>
       </c>
       <c r="D22">
-        <v>9.626755485866516</v>
+        <v>13.18201213698811</v>
       </c>
       <c r="E22">
-        <v>27.45066640831313</v>
+        <v>33.32061931535014</v>
       </c>
       <c r="F22">
-        <v>14.96495936000965</v>
+        <v>16.82324251498143</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>5.389146752231365</v>
+        <v>7.51589335411742</v>
       </c>
       <c r="C23">
-        <v>6.019867177187436</v>
+        <v>8.105384528187138</v>
       </c>
       <c r="D23">
-        <v>6.266406722061276</v>
+        <v>9.339099629448802</v>
       </c>
       <c r="E23">
-        <v>11.31101481458931</v>
+        <v>16.01032074527788</v>
       </c>
       <c r="F23">
-        <v>7.229142996551987</v>
+        <v>10.23368653630058</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>13.17125072616889</v>
+        <v>5.274744021467989</v>
       </c>
       <c r="C24">
-        <v>13.52152983181389</v>
+        <v>5.514539807733552</v>
       </c>
       <c r="D24">
-        <v>13.18201213698811</v>
+        <v>5.560297471691922</v>
       </c>
       <c r="E24">
-        <v>33.32061931535014</v>
+        <v>10.73341229864117</v>
       </c>
       <c r="F24">
-        <v>16.82324251498143</v>
+        <v>7.237322691212535</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>7.51589335411742</v>
+        <v>2.528432340531266</v>
       </c>
       <c r="C25">
-        <v>8.105384528187138</v>
+        <v>2.619185347855552</v>
       </c>
       <c r="D25">
-        <v>9.339099629448802</v>
+        <v>2.629259525208451</v>
       </c>
       <c r="E25">
-        <v>16.01032074527788</v>
+        <v>6.318759474987799</v>
       </c>
       <c r="F25">
-        <v>10.23368653630058</v>
+        <v>3.994360013957185</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>5.274744021467989</v>
+        <v>4.658546058831069</v>
       </c>
       <c r="C26">
-        <v>5.514539807733552</v>
+        <v>5.303885632823768</v>
       </c>
       <c r="D26">
-        <v>5.560297471691922</v>
+        <v>5.467991026582363</v>
       </c>
       <c r="E26">
-        <v>10.73341229864117</v>
+        <v>11.31061652504779</v>
       </c>
       <c r="F26">
-        <v>7.237322691212535</v>
+        <v>6.405890497374354</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.528432340531266</v>
+        <v>8.94328668534911</v>
       </c>
       <c r="C27">
-        <v>2.619185347855552</v>
+        <v>9.222327085384011</v>
       </c>
       <c r="D27">
-        <v>2.629259525208451</v>
+        <v>9.694841328313366</v>
       </c>
       <c r="E27">
-        <v>6.318759474987799</v>
+        <v>25.04148128458329</v>
       </c>
       <c r="F27">
-        <v>3.994360013957185</v>
+        <v>15.73420353242343</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.658546058831069</v>
+        <v>4.475948617136961</v>
       </c>
       <c r="C28">
-        <v>5.303885632823768</v>
+        <v>4.759698893986068</v>
       </c>
       <c r="D28">
-        <v>5.467991026582363</v>
+        <v>4.75819529557256</v>
       </c>
       <c r="E28">
-        <v>11.31061652504779</v>
+        <v>14.36707123325409</v>
       </c>
       <c r="F28">
-        <v>6.405890497374354</v>
+        <v>7.140787796121836</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>8.94328668534911</v>
+        <v>3.766521910980456</v>
       </c>
       <c r="C29">
-        <v>9.222327085384011</v>
+        <v>3.813942939613928</v>
       </c>
       <c r="D29">
-        <v>9.694841328313366</v>
+        <v>3.811866164716309</v>
       </c>
       <c r="E29">
-        <v>25.04148128458329</v>
+        <v>8.785756937507022</v>
       </c>
       <c r="F29">
-        <v>15.73420353242343</v>
+        <v>6.024462361449475</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.475948617136961</v>
+        <v>3.319106846677305</v>
       </c>
       <c r="C30">
-        <v>4.759698893986068</v>
+        <v>3.283088653082858</v>
       </c>
       <c r="D30">
-        <v>4.75819529557256</v>
+        <v>3.345602108313945</v>
       </c>
       <c r="E30">
-        <v>14.36707123325409</v>
+        <v>8.826628264351044</v>
       </c>
       <c r="F30">
-        <v>7.140787796121836</v>
+        <v>5.613755660321803</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>3.766521910980456</v>
+        <v>4.501800228016615</v>
       </c>
       <c r="C31">
-        <v>3.813942939613928</v>
+        <v>4.756042067863047</v>
       </c>
       <c r="D31">
-        <v>3.811866164716309</v>
+        <v>4.830700526025526</v>
       </c>
       <c r="E31">
-        <v>8.785756937507022</v>
+        <v>13.63020882817435</v>
       </c>
       <c r="F31">
-        <v>6.024462361449475</v>
+        <v>7.387112697438325</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>3.319106846677305</v>
+        <v>11.46737484254012</v>
       </c>
       <c r="C32">
-        <v>3.283088653082858</v>
+        <v>11.01929932322557</v>
       </c>
       <c r="D32">
-        <v>3.345602108313945</v>
+        <v>10.9684188026059</v>
       </c>
       <c r="E32">
-        <v>8.826628264351044</v>
+        <v>36.79646154909376</v>
       </c>
       <c r="F32">
-        <v>5.613755660321803</v>
+        <v>18.9168888838934</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>4.501800228016615</v>
+        <v>4.737084477845523</v>
       </c>
       <c r="C33">
-        <v>4.756042067863047</v>
+        <v>4.411696389169979</v>
       </c>
       <c r="D33">
-        <v>4.830700526025526</v>
+        <v>4.55515515994145</v>
       </c>
       <c r="E33">
-        <v>13.63020882817435</v>
+        <v>11.49530532011403</v>
       </c>
       <c r="F33">
-        <v>7.387112697438325</v>
+        <v>8.485913517419178</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>11.46737484254012</v>
+        <v>3.391942789522786</v>
       </c>
       <c r="C34">
-        <v>11.01929932322557</v>
+        <v>3.530601927371098</v>
       </c>
       <c r="D34">
-        <v>10.9684188026059</v>
+        <v>3.502171420725738</v>
       </c>
       <c r="E34">
-        <v>36.79646154909376</v>
+        <v>8.490333834676225</v>
       </c>
       <c r="F34">
-        <v>18.9168888838934</v>
+        <v>5.361336797457063</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>4.737084477845523</v>
+        <v>15.61767120039859</v>
       </c>
       <c r="C35">
-        <v>4.411696389169979</v>
+        <v>15.84380197267369</v>
       </c>
       <c r="D35">
-        <v>4.55515515994145</v>
+        <v>14.93015258737783</v>
       </c>
       <c r="E35">
-        <v>11.49530532011403</v>
+        <v>33.8739041412004</v>
       </c>
       <c r="F35">
-        <v>8.485913517419178</v>
+        <v>20.18813529076368</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3.391942789522786</v>
+        <v>6.641655742009609</v>
       </c>
       <c r="C36">
-        <v>3.530601927371098</v>
+        <v>7.176770168829792</v>
       </c>
       <c r="D36">
-        <v>3.502171420725738</v>
+        <v>7.028695988362789</v>
       </c>
       <c r="E36">
-        <v>8.490333834676225</v>
+        <v>26.64605654030483</v>
       </c>
       <c r="F36">
-        <v>5.361336797457063</v>
+        <v>10.74360032405179</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>15.61767120039859</v>
+        <v>5.075373972263582</v>
       </c>
       <c r="C37">
-        <v>15.84380197267369</v>
+        <v>5.198357103295138</v>
       </c>
       <c r="D37">
-        <v>14.93015258737783</v>
+        <v>5.22195329023811</v>
       </c>
       <c r="E37">
-        <v>33.8739041412004</v>
+        <v>11.73846023498007</v>
       </c>
       <c r="F37">
-        <v>20.18813529076368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>6.641655742009609</v>
-      </c>
-      <c r="C38">
-        <v>7.176770168829792</v>
-      </c>
-      <c r="D38">
-        <v>7.028695988362789</v>
-      </c>
-      <c r="E38">
-        <v>26.64605654030483</v>
-      </c>
-      <c r="F38">
-        <v>10.74360032405179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>5.075373972263582</v>
-      </c>
-      <c r="C39">
-        <v>5.198357103295138</v>
-      </c>
-      <c r="D39">
-        <v>5.22195329023811</v>
-      </c>
-      <c r="E39">
-        <v>11.73846023498007</v>
-      </c>
-      <c r="F39">
         <v>8.954864834796695</v>
       </c>
     </row>
